--- a/teams_info_lucas.xlsx
+++ b/teams_info_lucas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>matchId</t>
   </si>
@@ -28,73 +28,43 @@
     <t>Watford</t>
   </si>
   <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>Coventry</t>
-  </si>
-  <si>
-    <t>Norwich</t>
+    <t>Sheff Wed</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Southampton</t>
   </si>
   <si>
     <t>Oxford</t>
   </si>
   <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Leeds</t>
-  </si>
-  <si>
-    <t>WBA</t>
-  </si>
-  <si>
-    <t>Blackburn</t>
+    <t>Hull</t>
   </si>
   <si>
     <t>QPR</t>
   </si>
   <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Sheff Utd</t>
-  </si>
-  <si>
-    <t>Derby</t>
-  </si>
-  <si>
-    <t>Millwall</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Stoke</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
     <t>Swansea</t>
-  </si>
-  <si>
-    <t>Sheff Wed</t>
-  </si>
-  <si>
-    <t>Southampton</t>
   </si>
 </sst>
 </file>
@@ -452,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1826881</v>
+        <v>1827057</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -488,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1826905</v>
+        <v>1827754</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -502,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1826911</v>
+        <v>1827783</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -516,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1826948</v>
+        <v>1827847</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -530,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1826978</v>
+        <v>1827930</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -544,13 +514,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1826982</v>
+        <v>1827955</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -558,13 +528,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1827028</v>
+        <v>1908321</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -572,13 +542,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1827051</v>
+        <v>1908363</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -586,13 +556,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1827071</v>
+        <v>1908367</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -600,13 +570,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1827076</v>
+        <v>1908412</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -614,13 +584,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1827094</v>
+        <v>1908457</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -628,13 +598,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1827113</v>
+        <v>1908607</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -642,13 +612,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1827119</v>
+        <v>1908612</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -656,349 +626,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1827691</v>
+        <v>1908613</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1827702</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1827720</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
         <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1827723</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>1827728</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>1827754</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>1827780</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>1827783</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>1827794</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>1827805</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>1827816</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>1827822</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>1827862</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>1827864</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1827879</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>1827898</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>1827922</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>1827930</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>1827933</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>1827955</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>1908363</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>1908367</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>1908412</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>1908421</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>1908613</v>
-      </c>
-      <c r="C39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/teams_info_lucas.xlsx
+++ b/teams_info_lucas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,7 +1085,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1908412</v>
+        <v>1908387</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>WBA</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1908421</v>
+        <v>1908400</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Coventry</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1908457</v>
+        <v>1908412</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Oxford</t>
+          <t>Southampton</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1139,86 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>1908421</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1908455</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1908457</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Oxford</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1908486</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sheff Utd</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
         <v>1908613</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Watford</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Swansea</t>
         </is>
